--- a/Output/effect_size.xlsx
+++ b/Output/effect_size.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,35 +380,70 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>.y.</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>group1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>group2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>n1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>n2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>cor</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>conf.low</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>conf.high</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
@@ -421,11 +456,11 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.04274074499614013</v>
+        <v>0.1868279499794029</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -433,7 +468,33 @@
           <t>wdf_q1_11</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Signs</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Willing but unable to sign</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>173</v>
+      </c>
+      <c r="I2">
+        <v>36</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Respondent signs</t>
         </is>
@@ -446,11 +507,11 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0308460220811903</v>
+        <v>0.1868259741051323</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -458,7 +519,33 @@
           <t>wdf_q1_5</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>142</v>
+      </c>
+      <c r="I3">
+        <v>67</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
@@ -471,11 +558,11 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0443562493110469</v>
+        <v>0.02712113372131582</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -483,7 +570,25 @@
           <t>wdf_q1_4_age_group</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>209</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Age grouped</t>
         </is>
@@ -496,11 +601,11 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.006690114504991126</v>
+        <v>0.08643058865031605</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -508,7 +613,33 @@
           <t>wdf_q2_7d</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>168</v>
+      </c>
+      <c r="I5">
+        <v>41</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Diabetes medication - insulin injections</t>
         </is>
@@ -521,11 +652,11 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.01515586779586651</v>
+        <v>0.008462511022370755</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -533,7 +664,25 @@
           <t>wdf_q2_3a_b_years_group</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K6">
+        <v>209</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Duration of diabetes grouped</t>
         </is>
@@ -546,11 +695,11 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.001589857306723377</v>
+        <v>0.03291473211179143</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -558,7 +707,33 @@
           <t>wdf_q2_7a_b_c</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>172</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Diabetes medication - Tablets</t>
         </is>
@@ -571,11 +746,11 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.02012508880197945</v>
+        <v>0.1471926602311232</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -583,7 +758,33 @@
           <t>wdf_q2_7a_b_c_d</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>197</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Diabetes medication - Tablets with Insulin Injections</t>
         </is>
@@ -596,11 +797,11 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.02502770012839819</v>
+        <v>0.01106922852427033</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -608,7 +809,25 @@
           <t>diabetes_medication_type</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K9">
+        <v>209</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Diabetes medication type</t>
         </is>
@@ -621,11 +840,11 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.00586766740703409</v>
+        <v>0.06589368704003436</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -633,7 +852,33 @@
           <t>diabetes_medication</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>201</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Taking diabetes medication</t>
         </is>
@@ -646,11 +891,11 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.004492521278907373</v>
+        <v>0.07029031595241982</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -658,7 +903,33 @@
           <t>wdf_q2_17f</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>205</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Diagnosed with stroke</t>
         </is>
@@ -671,11 +942,11 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.00600231521375479</v>
+        <v>0.05570457492990682</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -683,7 +954,33 @@
           <t>wdf_q2_17i</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>199</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Diagnosed with tuberculosis</t>
         </is>
@@ -696,11 +993,11 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.001199815065532438</v>
+        <v>0.03890433619422429</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -708,7 +1005,33 @@
           <t>wdf_q2_19a</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>193</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Peripheral neuropathy complication</t>
         </is>
@@ -721,11 +1044,11 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.05113601928606525</v>
+        <v>0.2267641356853502</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -733,7 +1056,33 @@
           <t>wdf_q2_19b</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>114</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Poor vision complication</t>
         </is>
@@ -746,11 +1095,11 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.01516656746272836</v>
+        <v>0.1090608030215759</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -758,7 +1107,33 @@
           <t>wdf_q2_19e</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>184</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Chest pain complication</t>
         </is>
@@ -771,11 +1146,11 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.007822665242059637</v>
+        <v>0.1098646203664492</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -783,7 +1158,33 @@
           <t>wdf_q5_0a</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>198</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Anaemia</t>
         </is>
@@ -796,11 +1197,11 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.007093699700963563</v>
+        <v>0.08634903935466411</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -808,7 +1209,33 @@
           <t>wdf_q2_17b_c_d</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>202</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Diagnosed with cardiovascular diseases</t>
         </is>
@@ -821,11 +1248,11 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.002461347061635942</v>
+        <v>0.02922660755366496</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -833,7 +1260,33 @@
           <t>wdf_q2_17e_19d</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18">
+        <v>190</v>
+      </c>
+      <c r="I18">
+        <v>19</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Kidney Complications</t>
         </is>
@@ -846,11 +1299,11 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.004654145592784611</v>
+        <v>0.05685609004712142</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -858,7 +1311,33 @@
           <t>wdf_q2_19f_q5_0c</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19">
+        <v>179</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Abdominal or pedal edema complications</t>
         </is>
@@ -871,11 +1350,11 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.008645839692560909</v>
+        <v>0.09421771878908339</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -883,7 +1362,33 @@
           <t>wdf_q2_9_17a</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>139</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hypertension</t>
         </is>
@@ -896,11 +1401,11 @@
         </is>
       </c>
       <c r="B21">
-        <v>6.177698342321653E-05</v>
+        <v>0.0105792637377985</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +1413,33 @@
           <t>wdf_q3_1</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21">
+        <v>168</v>
+      </c>
+      <c r="I21">
+        <v>41</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Ever smoked tobacco</t>
         </is>
@@ -921,11 +1452,11 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.0007258349561853446</v>
+        <v>0.02065825338601356</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -933,7 +1464,33 @@
           <t>wdf_q3_2a</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22">
+        <v>206</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Currently smoke tobacco</t>
         </is>
@@ -946,11 +1503,11 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.00867374168339264</v>
+        <v>0.09129326210853184</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -958,7 +1515,33 @@
           <t>wdf_q3_6</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23">
+        <v>204</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Ever used smokeless tobacco</t>
         </is>
@@ -971,11 +1554,11 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.01741910105063788</v>
+        <v>0.1152079404819199</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -983,7 +1566,33 @@
           <t>wdf_q3_7</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>207</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Currently use smokeless tobacco</t>
         </is>
@@ -996,11 +1605,11 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.0003154960919355137</v>
+        <v>0.02643337939428493</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1008,7 +1617,33 @@
           <t>wdf_q3_10</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>202</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Alcohol consumption within the past 12 months</t>
         </is>
@@ -1021,11 +1656,11 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.003202342250692244</v>
+        <v>0.04640885234960732</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1033,7 +1668,33 @@
           <t>wdf_q3_14</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>207</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Alcohol consumption within the past 30 days?</t>
         </is>
@@ -1046,11 +1707,11 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.0002528241753061817</v>
+        <v>0.0135003709551137</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1058,7 +1719,33 @@
           <t>wdf_q3_15</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>154</v>
+      </c>
+      <c r="I27">
+        <v>55</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>Ever consumed alcohol?</t>
         </is>
@@ -1071,11 +1758,11 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.003062748692085016</v>
+        <v>0.05067997818404697</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1083,7 +1770,33 @@
           <t>wdf_q3_17a</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>193</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>Stopped taking alcohol due to religious/moral reasons</t>
         </is>
@@ -1096,11 +1809,11 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.00756669886102436</v>
+        <v>0.09545598462674297</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1108,7 +1821,33 @@
           <t>wdf_q3_17b</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>205</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>Stopped taking alcohol due to advice by doctor/health worker</t>
         </is>
@@ -1121,11 +1860,11 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.003454897072094398</v>
+        <v>0.06525872487295648</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1133,7 +1872,33 @@
           <t>wdf_q3_17c</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>194</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Stopped taking alcohol to be healthy</t>
         </is>
@@ -1146,11 +1911,11 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.005155975889895447</v>
+        <v>0.08193532966786554</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1158,7 +1923,33 @@
           <t>wdf_q3_17d</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>191</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Stopped taking alcohol due to illness</t>
         </is>
@@ -1171,11 +1962,11 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.00271157171407</v>
+        <v>0.05447084328023143</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1183,7 +1974,33 @@
           <t>wdf_q3_17e</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>200</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>Stopped taking alcohol due to family/social reasons</t>
         </is>
@@ -1196,11 +2013,11 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.01372381660861578</v>
+        <v>0.1333089111471175</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1208,7 +2025,33 @@
           <t>wdf_q3_17f</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>204</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>Stopped taking alcohol due to economic reasons</t>
         </is>
@@ -1221,11 +2064,11 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.007708328189335054</v>
+        <v>0.1014199628703798</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1233,7 +2076,33 @@
           <t>wdf_q3_22</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>171</v>
+      </c>
+      <c r="I34">
+        <v>38</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>Adding salt to vegetables while cooking</t>
         </is>
@@ -1246,11 +2115,11 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.04121688236367337</v>
+        <v>0.02855724793355885</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1258,7 +2127,25 @@
           <t>wdf_q3_23</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K35">
+        <v>209</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>Adding salt to food when eating</t>
         </is>
@@ -1271,11 +2158,11 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.0489705128419005</v>
+        <v>0.01462165308121523</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1283,7 +2170,25 @@
           <t>wdf_q3_24</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K36">
+        <v>209</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Frequency of eating red meat</t>
         </is>
@@ -1296,11 +2201,11 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.02144634283120991</v>
+        <v>-0.01466284310198825</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1308,7 +2213,25 @@
           <t>wdf_q3_25a</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K37">
+        <v>209</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>Frequency of eating chips</t>
         </is>
@@ -1321,11 +2244,11 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.0287014959917575</v>
+        <v>-0.007236905065468853</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1333,7 +2256,25 @@
           <t>wdf_q3_25b</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K38">
+        <v>209</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Frequency of eating mandazi</t>
         </is>
@@ -1346,11 +2287,11 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.02858498122253605</v>
+        <v>-0.004851597753770159</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1358,7 +2299,25 @@
           <t>wdf_q3_25c</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K39">
+        <v>209</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>Frequency of eating samosa</t>
         </is>
@@ -1371,11 +2330,11 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.02223272899259367</v>
+        <v>0.002397635547299358</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1383,7 +2342,25 @@
           <t>wdf_q3_25d</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K40">
+        <v>209</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>Frequency of eating fried chicken</t>
         </is>
@@ -1396,11 +2373,11 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.03771561680387067</v>
+        <v>0.01109636443279632</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1408,7 +2385,25 @@
           <t>wdf_q3_25e</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K41">
+        <v>209</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>Frequency of eating fried fish</t>
         </is>
@@ -1421,11 +2416,11 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.0109945125801373</v>
+        <v>0.1176683692625315</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1433,7 +2428,33 @@
           <t>wdf_q3_26</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42">
+        <v>179</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>Adding sugar to your beverages</t>
         </is>
@@ -1446,11 +2467,11 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.006365619174336408</v>
+        <v>0.07433546590163329</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1458,7 +2479,33 @@
           <t>wdf_q3_29</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>123</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>Taken a soft drink in the past 12 months</t>
         </is>
@@ -1471,11 +2518,11 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.01470481365947851</v>
+        <v>-0.01428027687048911</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1483,7 +2530,25 @@
           <t>wdf_q3_29a</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K44">
+        <v>209</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
         <is>
           <t>Frequency of soft drink in the past 12 months</t>
         </is>
@@ -1496,11 +2561,11 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.04582911785576214</v>
+        <v>0.01636901549338329</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1508,7 +2573,25 @@
           <t>wdf_q3_30</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K45">
+        <v>209</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
         <is>
           <t>How often do you take plain water in a day?</t>
         </is>
@@ -1521,11 +2604,11 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.002155212425451435</v>
+        <v>0.03877796527520178</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1533,7 +2616,33 @@
           <t>healthy_eating_index</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>157</v>
+      </c>
+      <c r="I46">
+        <v>52</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
         <is>
           <t>Healthy eating habit</t>
         </is>
@@ -1546,11 +2655,11 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.0371087879581262</v>
+        <v>0.174893823763278</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1558,7 +2667,33 @@
           <t>wdf_q3_32</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>146</v>
+      </c>
+      <c r="I47">
+        <v>63</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
         <is>
           <t>Involved in vigorous-intensity activity</t>
         </is>
@@ -1571,11 +2706,11 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.03595309315558311</v>
+        <v>0.1716087462872104</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1583,7 +2718,33 @@
           <t>wdf_q3_35</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>109</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>Involve moderate-intensity activity</t>
         </is>
@@ -1596,11 +2757,11 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.002431184221274395</v>
+        <v>0.07230010681833475</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1608,7 +2769,33 @@
           <t>wdf_q3_38</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>184</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
         <is>
           <t>Walking/riding a bicycle for at least 10 minutes</t>
         </is>
@@ -1621,11 +2808,11 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.0002517972214009202</v>
+        <v>0.004913598108081428</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1633,7 +2820,33 @@
           <t>wdf_q3_41</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>194</v>
+      </c>
+      <c r="I50">
+        <v>15</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
         <is>
           <t>Do vigorous-intensity sports, fitness or recreational</t>
         </is>
@@ -1646,11 +2859,11 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.01192186059838467</v>
+        <v>0.1112570904627422</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1658,7 +2871,33 @@
           <t>wdf_q3_44</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>185</v>
+      </c>
+      <c r="I51">
+        <v>24</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>Do moderate-intensity sports, fitness or recreational</t>
         </is>
@@ -1671,11 +2910,11 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.003493803855880553</v>
+        <v>0.04917485778368543</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1683,7 +2922,33 @@
           <t>regular_physical_activity_index</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>189</v>
+      </c>
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
         <is>
           <t>Regular physical activity</t>
         </is>
@@ -1696,11 +2961,11 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.02066065563784631</v>
+        <v>0.006484273186156972</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1708,7 +2973,25 @@
           <t>wdf_q3_47a_b_hours_group</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K53">
+        <v>209</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>Time spent sitting or reclining in hrs grouped</t>
         </is>
@@ -1721,11 +3004,11 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.0001155699026746448</v>
+        <v>0.01439562561114711</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>wilcoxon</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1733,7 +3016,33 @@
           <t>wdf_q3_48_group</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Less than 7 hours</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>7 and more</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>54</v>
+      </c>
+      <c r="I54">
+        <v>155</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
         <is>
           <t>Hours spent on sleeping grouped</t>
         </is>
@@ -1746,11 +3055,11 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.3939795056962359</v>
+        <v>0.3699102005053067</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1758,7 +3067,25 @@
           <t>wdf_q4_1</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K55">
+        <v>209</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
         <is>
           <t>1.Do you have enough energy for everyday life?</t>
         </is>
@@ -1771,11 +3098,11 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.2751252455543968</v>
+        <v>0.2529748748173592</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1783,7 +3110,25 @@
           <t>wdf_q4_2</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K56">
+        <v>209</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
         <is>
           <t>2.Do you have enough money to meet your basic needs?</t>
         </is>
@@ -1796,11 +3141,11 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.7010721432977007</v>
+        <v>0.7200526510293722</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1808,7 +3153,25 @@
           <t>wdf_q4_3</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K57">
+        <v>209</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>3.How satisfied are you with your health?</t>
         </is>
@@ -1821,11 +3184,11 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.5405804969687801</v>
+        <v>0.5302035889787655</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1833,7 +3196,25 @@
           <t>wdf_q4_4</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K58">
+        <v>209</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>4.How satisfied are you with yourself?</t>
         </is>
@@ -1846,11 +3227,11 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.5501747289981153</v>
+        <v>0.5289387079336206</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1858,7 +3239,25 @@
           <t>wdf_q4_5</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K59">
+        <v>209</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t>5.How satisfied are you with your daily living activities?</t>
         </is>
@@ -1871,11 +3270,11 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.205358349707107</v>
+        <v>0.1727966700777144</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1883,7 +3282,25 @@
           <t>wdf_q4_6</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K60">
+        <v>209</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>6.How satisfied are you with your personal relationships?</t>
         </is>
@@ -1896,11 +3313,11 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.2717649500079673</v>
+        <v>0.2579714022502976</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1908,7 +3325,25 @@
           <t>wdf_q4_7</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K61">
+        <v>209</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
         <is>
           <t>7.How satisfied are you with the conditions of your living place?</t>
         </is>
@@ -1921,11 +3356,11 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.4220092915178151</v>
+        <v>0.3977043003756405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1933,7 +3368,25 @@
           <t>wdf_q4_8</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K62">
+        <v>209</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
         <is>
           <t>8.How satisfied are you with your life as a whole?</t>
         </is>
@@ -1946,11 +3399,11 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.4305952613044581</v>
+        <v>0.4317698418112885</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1958,7 +3411,25 @@
           <t>wdf_q4_9</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K63">
+        <v>209</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
         <is>
           <t>9.How would you rate your overall quality of life?</t>
         </is>
@@ -1971,11 +3442,11 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.4719694287772948</v>
+        <v>0.4641086153729828</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1983,7 +3454,25 @@
           <t>wdf_q4_10</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="K64">
+        <v>209</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
         <is>
           <t>10.How would you say you are these days?</t>
         </is>
@@ -1996,11 +3485,11 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.01416279562304096</v>
+        <v>-0.003407089907972029</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2008,7 +3497,25 @@
           <t>wdf_q5_5_6_7_bmi_group</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K65">
+        <v>209</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
         <is>
           <t>BMI (kg/m2) grouped</t>
         </is>
@@ -2021,11 +3528,11 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.01973054438659142</v>
+        <v>0.02119397189605024</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2033,7 +3540,25 @@
           <t>wdf_q5_8a_b_waist_hip_ratio_group</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K66">
+        <v>209</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
         <is>
           <t>Waist-to-hip ratio grouped</t>
         </is>
@@ -2046,11 +3571,11 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.04886550447689549</v>
+        <v>0.03956792501003944</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>eta_squared</t>
+          <t>kruskal-wallis</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2058,7 +3583,25 @@
           <t>wdf_q5_10_group</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>overall_qol_transformed</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="K67">
+        <v>209</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>eta2[H]</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
         <is>
           <t>Blood glucose (mmol/L) grouped</t>
         </is>
@@ -2080,27 +3623,27 @@
           <t>wdf_q1_4_age</t>
         </is>
       </c>
-      <c r="E68">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M68">
         <v>-0.28</v>
       </c>
-      <c r="F68">
+      <c r="N68">
         <v>-4.149161032958352</v>
       </c>
-      <c r="G68">
+      <c r="O68">
         <v>4.88E-05</v>
       </c>
-      <c r="H68">
+      <c r="P68">
         <v>-0.3986925042639797</v>
       </c>
-      <c r="I68">
+      <c r="Q68">
         <v>-0.1472357105187531</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>Age (years)</t>
         </is>
@@ -2122,27 +3665,27 @@
           <t>wdf_q2_3a_b_years</t>
         </is>
       </c>
-      <c r="E69">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M69">
         <v>-0.11</v>
       </c>
-      <c r="F69">
+      <c r="N69">
         <v>-1.579591687699474</v>
       </c>
-      <c r="G69">
+      <c r="O69">
         <v>0.116</v>
       </c>
-      <c r="H69">
+      <c r="P69">
         <v>-0.2412745469388759</v>
       </c>
-      <c r="I69">
+      <c r="Q69">
         <v>0.02698077256085384</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>Duration of diabetes (years)</t>
         </is>
@@ -2164,27 +3707,27 @@
           <t>wdf_q3_18</t>
         </is>
       </c>
-      <c r="E70">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M70">
         <v>-0.0035</v>
       </c>
-      <c r="F70">
+      <c r="N70">
         <v>-0.05035179163904786</v>
       </c>
-      <c r="G70">
+      <c r="O70">
         <v>0.96</v>
       </c>
-      <c r="H70">
+      <c r="P70">
         <v>-0.1391481934434727</v>
       </c>
-      <c r="I70">
+      <c r="Q70">
         <v>0.132277768907046</v>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>How many days do you eat fruit</t>
         </is>
@@ -2206,27 +3749,27 @@
           <t>wdf_q3_20</t>
         </is>
       </c>
-      <c r="E71">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M71">
         <v>-0.12</v>
       </c>
-      <c r="F71">
+      <c r="N71">
         <v>-1.781428675809485</v>
       </c>
-      <c r="G71">
+      <c r="O71">
         <v>0.07630000000000001</v>
       </c>
-      <c r="H71">
+      <c r="P71">
         <v>-0.2543524039635993</v>
       </c>
-      <c r="I71">
+      <c r="Q71">
         <v>0.0130527774116687</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>How many days do you eat vegetables</t>
         </is>
@@ -2248,27 +3791,27 @@
           <t>wdf_q3_33</t>
         </is>
       </c>
-      <c r="E72">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M72">
         <v>0.19</v>
       </c>
-      <c r="F72">
+      <c r="N72">
         <v>2.751022827674804</v>
       </c>
-      <c r="G72">
+      <c r="O72">
         <v>0.00647</v>
       </c>
-      <c r="H72">
+      <c r="P72">
         <v>0.05345476967021618</v>
       </c>
-      <c r="I72">
+      <c r="Q72">
         <v>0.3154805196269404</v>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>How many days do you do vigorous-intensity activities</t>
         </is>
@@ -2290,27 +3833,27 @@
           <t>wdf_q3_36</t>
         </is>
       </c>
-      <c r="E73">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M73">
         <v>0.19</v>
       </c>
-      <c r="F73">
+      <c r="N73">
         <v>2.786623714681596</v>
       </c>
-      <c r="G73">
+      <c r="O73">
         <v>0.00582</v>
       </c>
-      <c r="H73">
+      <c r="P73">
         <v>0.05587735291806928</v>
       </c>
-      <c r="I73">
+      <c r="Q73">
         <v>0.3176668475153786</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>How many days do you do moderate-intesity activities</t>
         </is>
@@ -2332,27 +3875,27 @@
           <t>wdf_q3_39</t>
         </is>
       </c>
-      <c r="E74">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M74">
         <v>0.052</v>
       </c>
-      <c r="F74">
+      <c r="N74">
         <v>0.7436191167754154</v>
       </c>
-      <c r="G74">
+      <c r="O74">
         <v>0.458</v>
       </c>
-      <c r="H74">
+      <c r="P74">
         <v>-0.0846916791835593</v>
       </c>
-      <c r="I74">
+      <c r="Q74">
         <v>0.1860276802066018</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>How many days do you walk or use a bicycle</t>
         </is>
@@ -2374,27 +3917,27 @@
           <t>wdf_q3_42</t>
         </is>
       </c>
-      <c r="E75">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M75">
         <v>-0.01</v>
       </c>
-      <c r="F75">
+      <c r="N75">
         <v>-0.143273703007297</v>
       </c>
-      <c r="G75">
+      <c r="O75">
         <v>0.886</v>
       </c>
-      <c r="H75">
+      <c r="P75">
         <v>-0.1454757327474381</v>
       </c>
-      <c r="I75">
+      <c r="Q75">
         <v>0.1259270745475077</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>How many days do you do vigorous-intensity sports</t>
         </is>
@@ -2416,27 +3959,27 @@
           <t>wdf_q3_45</t>
         </is>
       </c>
-      <c r="E76">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M76">
         <v>0.04</v>
       </c>
-      <c r="F76">
+      <c r="N76">
         <v>0.5711098189558389</v>
       </c>
-      <c r="G76">
+      <c r="O76">
         <v>0.569</v>
       </c>
-      <c r="H76">
+      <c r="P76">
         <v>-0.09657080712748647</v>
       </c>
-      <c r="I76">
+      <c r="Q76">
         <v>0.1744392575249732</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>How many days do you do moderate-intesnsity sports?</t>
         </is>
@@ -2458,27 +4001,27 @@
           <t>wdf_q3_34a_b_hours</t>
         </is>
       </c>
-      <c r="E77">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M77">
         <v>0.13</v>
       </c>
-      <c r="F77">
+      <c r="N77">
         <v>1.882164535497288</v>
       </c>
-      <c r="G77">
+      <c r="O77">
         <v>0.0612</v>
       </c>
-      <c r="H77">
+      <c r="P77">
         <v>-0.006107897459808686</v>
       </c>
-      <c r="I77">
+      <c r="Q77">
         <v>0.2608370461093502</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>Time spent doing vigorous-intensity activities in hrs</t>
         </is>
@@ -2500,27 +4043,27 @@
           <t>wdf_q3_37a_b_hours</t>
         </is>
       </c>
-      <c r="E78">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M78">
         <v>0.12</v>
       </c>
-      <c r="F78">
+      <c r="N78">
         <v>1.779326596430535</v>
       </c>
-      <c r="G78">
+      <c r="O78">
         <v>0.0767</v>
       </c>
-      <c r="H78">
+      <c r="P78">
         <v>-0.01319775110034114</v>
       </c>
-      <c r="I78">
+      <c r="Q78">
         <v>0.2542167810043769</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>Time spent doing moderate-intensity activities in hrs</t>
         </is>
@@ -2542,27 +4085,27 @@
           <t>wdf_q3_40a_b_hours</t>
         </is>
       </c>
-      <c r="E79">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M79">
         <v>0.08500000000000001</v>
       </c>
-      <c r="F79">
+      <c r="N79">
         <v>1.225786279063205</v>
       </c>
-      <c r="G79">
+      <c r="O79">
         <v>0.222</v>
       </c>
-      <c r="H79">
+      <c r="P79">
         <v>-0.05141648044477357</v>
       </c>
-      <c r="I79">
+      <c r="Q79">
         <v>0.2180924906261433</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>Time spent walking or cycling in hrs</t>
         </is>
@@ -2584,27 +4127,27 @@
           <t>wdf_q3_43a_b_hours</t>
         </is>
       </c>
-      <c r="E80">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M80">
         <v>-0.023</v>
       </c>
-      <c r="F80">
+      <c r="N80">
         <v>-0.3379631715100966</v>
       </c>
-      <c r="G80">
+      <c r="O80">
         <v>0.736</v>
       </c>
-      <c r="H80">
+      <c r="P80">
         <v>-0.1586924357125874</v>
       </c>
-      <c r="I80">
+      <c r="Q80">
         <v>0.1125898578402238</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>Time spent on vigorous-intensity sports in hrs</t>
         </is>
@@ -2626,27 +4169,27 @@
           <t>wdf_q3_46a_b_hours</t>
         </is>
       </c>
-      <c r="E81">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M81">
         <v>0.073</v>
       </c>
-      <c r="F81">
+      <c r="N81">
         <v>1.056358092700689</v>
       </c>
-      <c r="G81">
+      <c r="O81">
         <v>0.292</v>
       </c>
-      <c r="H81">
+      <c r="P81">
         <v>-0.06311699094866612</v>
       </c>
-      <c r="I81">
+      <c r="Q81">
         <v>0.2068835282354059</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>Time spent on moderate-intensity sports in hrs</t>
         </is>
@@ -2668,27 +4211,27 @@
           <t>wdf_q3_48</t>
         </is>
       </c>
-      <c r="E82">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M82">
         <v>-0.078</v>
       </c>
-      <c r="F82">
+      <c r="N82">
         <v>-1.123263513742277</v>
       </c>
-      <c r="G82">
+      <c r="O82">
         <v>0.263</v>
       </c>
-      <c r="H82">
+      <c r="P82">
         <v>-0.211317737665884</v>
       </c>
-      <c r="I82">
+      <c r="Q82">
         <v>0.05849718389655577</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>Hours spent on sleeping</t>
         </is>
@@ -2710,27 +4253,27 @@
           <t>wdf_q3_47a_b_hours</t>
         </is>
       </c>
-      <c r="E83">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M83">
         <v>-0.13</v>
       </c>
-      <c r="F83">
+      <c r="N83">
         <v>-1.832600166730063</v>
       </c>
-      <c r="G83">
+      <c r="O83">
         <v>0.0683</v>
       </c>
-      <c r="H83">
+      <c r="P83">
         <v>-0.2576500633317023</v>
       </c>
-      <c r="I83">
+      <c r="Q83">
         <v>0.009524292585984402</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>Time spent sitting or reclining in hrs</t>
         </is>
@@ -2752,29 +4295,29 @@
           <t>overall_qol_raw</t>
         </is>
       </c>
-      <c r="E84">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M84">
         <v>1</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
-      <c r="G84">
+      <c r="O84">
         <v>0</v>
       </c>
-      <c r="H84">
+      <c r="P84">
         <v>1</v>
       </c>
-      <c r="I84">
+      <c r="Q84">
         <v>1</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>Overall QOL Raw Score</t>
         </is>
@@ -2796,27 +4339,27 @@
           <t>wdf_q5_8a</t>
         </is>
       </c>
-      <c r="E85">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M85">
         <v>-0.035</v>
       </c>
-      <c r="F85">
+      <c r="N85">
         <v>-0.496567262367852</v>
       </c>
-      <c r="G85">
+      <c r="O85">
         <v>0.62</v>
       </c>
-      <c r="H85">
+      <c r="P85">
         <v>-0.1698191183468683</v>
       </c>
-      <c r="I85">
+      <c r="Q85">
         <v>0.1019438694788873</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>Waist circumference</t>
         </is>
@@ -2838,27 +4381,27 @@
           <t>wdf_q5_8b</t>
         </is>
       </c>
-      <c r="E86">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M86">
         <v>0.077</v>
       </c>
-      <c r="F86">
+      <c r="N86">
         <v>1.10729280728615</v>
       </c>
-      <c r="G86">
+      <c r="O86">
         <v>0.269</v>
       </c>
-      <c r="H86">
+      <c r="P86">
         <v>-0.05974616071106278</v>
       </c>
-      <c r="I86">
+      <c r="Q86">
         <v>0.2107558909447871</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>Hip circumference</t>
         </is>
@@ -2880,27 +4423,27 @@
           <t>wdf_q5_10</t>
         </is>
       </c>
-      <c r="E87">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M87">
         <v>-0.079</v>
       </c>
-      <c r="F87">
+      <c r="N87">
         <v>-1.135716052410708</v>
       </c>
-      <c r="G87">
+      <c r="O87">
         <v>0.257</v>
       </c>
-      <c r="H87">
+      <c r="P87">
         <v>-0.2121419125905547</v>
       </c>
-      <c r="I87">
+      <c r="Q87">
         <v>0.05763723690966125</v>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>Blood glucose (mmol/l)</t>
         </is>
@@ -2922,27 +4465,27 @@
           <t>wdf_q5_1_2_3a</t>
         </is>
       </c>
-      <c r="E88">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M88">
         <v>-0.08699999999999999</v>
       </c>
-      <c r="F88">
+      <c r="N88">
         <v>-1.25017052954107</v>
       </c>
-      <c r="G88">
+      <c r="O88">
         <v>0.213</v>
       </c>
-      <c r="H88">
+      <c r="P88">
         <v>-0.2197001636386899</v>
       </c>
-      <c r="I88">
+      <c r="Q88">
         <v>0.04973221692941415</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>Systolic Blood pressure (mm Hg)</t>
         </is>
@@ -2964,27 +4507,27 @@
           <t>wdf_q5_1_2_3b</t>
         </is>
       </c>
-      <c r="E89">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M89">
         <v>-0.08500000000000001</v>
       </c>
-      <c r="F89">
+      <c r="N89">
         <v>-1.234515052622364</v>
       </c>
-      <c r="G89">
+      <c r="O89">
         <v>0.218</v>
       </c>
-      <c r="H89">
+      <c r="P89">
         <v>-0.2186681488542205</v>
       </c>
-      <c r="I89">
+      <c r="Q89">
         <v>0.05081357366017666</v>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>Diastolic Blood pressure (mm Hg)</t>
         </is>
@@ -3006,27 +4549,27 @@
           <t>wdf_q5_5a_b</t>
         </is>
       </c>
-      <c r="E90">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M90">
         <v>0.17</v>
       </c>
-      <c r="F90">
+      <c r="N90">
         <v>2.514489632280337</v>
       </c>
-      <c r="G90">
+      <c r="O90">
         <v>0.0127</v>
       </c>
-      <c r="H90">
+      <c r="P90">
         <v>0.03740148861604544</v>
       </c>
-      <c r="I90">
+      <c r="Q90">
         <v>0.3015271049063115</v>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>Height (metres)</t>
         </is>
@@ -3048,27 +4591,27 @@
           <t>wdf_q5_6_7</t>
         </is>
       </c>
-      <c r="E91">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M91">
         <v>0.046</v>
       </c>
-      <c r="F91">
+      <c r="N91">
         <v>0.6672030406766949</v>
       </c>
-      <c r="G91">
+      <c r="O91">
         <v>0.505</v>
       </c>
-      <c r="H91">
+      <c r="P91">
         <v>-0.09017469305974848</v>
       </c>
-      <c r="I91">
+      <c r="Q91">
         <v>0.1813317120332728</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>Weight (kgs)</t>
         </is>
@@ -3090,27 +4633,27 @@
           <t>wdf_q5_5_6_7_bmi</t>
         </is>
       </c>
-      <c r="E92">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M92">
         <v>-0.04</v>
       </c>
-      <c r="F92">
+      <c r="N92">
         <v>-0.5697048561616708</v>
       </c>
-      <c r="G92">
+      <c r="O92">
         <v>0.569</v>
       </c>
-      <c r="H92">
+      <c r="P92">
         <v>-0.174760170951638</v>
       </c>
-      <c r="I92">
+      <c r="Q92">
         <v>0.09690199660295298</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>BMI (kg/m2)</t>
         </is>
@@ -3132,27 +4675,27 @@
           <t>wdf_q5_8a_b_waist_hip_ratio</t>
         </is>
       </c>
-      <c r="E93">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Pearson</t>
+        </is>
+      </c>
+      <c r="M93">
         <v>-0.14</v>
       </c>
-      <c r="F93">
+      <c r="N93">
         <v>-2.05800627357728</v>
       </c>
-      <c r="G93">
+      <c r="O93">
         <v>0.0408</v>
       </c>
-      <c r="H93">
+      <c r="P93">
         <v>-0.2727116893524764</v>
       </c>
-      <c r="I93">
+      <c r="Q93">
         <v>-0.006011340940117437</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Pearson</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>Waist-to-hip ratio</t>
         </is>
